--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.76479233333333</v>
+        <v>15.428109</v>
       </c>
       <c r="H2">
-        <v>56.294377</v>
+        <v>46.284327</v>
       </c>
       <c r="I2">
-        <v>0.09818846546758657</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="J2">
-        <v>0.09818846546758656</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N2">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>34.97376365648967</v>
+        <v>29.140478568922</v>
       </c>
       <c r="R2">
-        <v>314.763872908407</v>
+        <v>262.264307120298</v>
       </c>
       <c r="S2">
-        <v>0.05356181486716664</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="T2">
-        <v>0.05356181486716663</v>
+        <v>0.105145687357564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.76479233333333</v>
+        <v>72.11798333333333</v>
       </c>
       <c r="H3">
-        <v>56.294377</v>
+        <v>216.35395</v>
       </c>
       <c r="I3">
-        <v>0.09818846546758657</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="J3">
-        <v>0.09818846546758656</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N3">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>29.13945195379434</v>
+        <v>136.2158218974778</v>
       </c>
       <c r="R3">
-        <v>262.255067584149</v>
+        <v>1225.9423970773</v>
       </c>
       <c r="S3">
-        <v>0.04462665060041993</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="T3">
-        <v>0.04462665060041993</v>
+        <v>0.4914986618531588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.11798333333333</v>
+        <v>17.753286</v>
       </c>
       <c r="H4">
-        <v>216.35395</v>
+        <v>53.25985799999999</v>
       </c>
       <c r="I4">
-        <v>0.3773638413007209</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="J4">
-        <v>0.3773638413007209</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N4">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>134.4132809827167</v>
+        <v>33.532252734988</v>
       </c>
       <c r="R4">
-        <v>1209.71952884445</v>
+        <v>301.790274614892</v>
       </c>
       <c r="S4">
-        <v>0.205852002157875</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="T4">
-        <v>0.205852002157875</v>
+        <v>0.120992239510715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.11798333333333</v>
+        <v>41.43140433333334</v>
       </c>
       <c r="H5">
-        <v>216.35395</v>
+        <v>124.294213</v>
       </c>
       <c r="I5">
-        <v>0.3773638413007209</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="J5">
-        <v>0.3773638413007209</v>
+        <v>0.2823634112785622</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N5">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O5">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>111.9905018406833</v>
+        <v>78.25527743262913</v>
       </c>
       <c r="R5">
-        <v>1007.91451656615</v>
+        <v>704.2974968936621</v>
       </c>
       <c r="S5">
-        <v>0.1715118391428459</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="T5">
-        <v>0.1715118391428459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>16.90787</v>
-      </c>
-      <c r="H6">
-        <v>50.72361</v>
-      </c>
-      <c r="I6">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="J6">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>1.863797</v>
-      </c>
-      <c r="N6">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q6">
-        <v>31.51283738239</v>
-      </c>
-      <c r="R6">
-        <v>283.61553644151</v>
-      </c>
-      <c r="S6">
-        <v>0.04826145617020262</v>
-      </c>
-      <c r="T6">
-        <v>0.04826145617020262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>16.90787</v>
-      </c>
-      <c r="H7">
-        <v>50.72361</v>
-      </c>
-      <c r="I7">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="J7">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.552879</v>
-      </c>
-      <c r="N7">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q7">
-        <v>26.25587625773</v>
-      </c>
-      <c r="R7">
-        <v>236.30288631957</v>
-      </c>
-      <c r="S7">
-        <v>0.04021049599078015</v>
-      </c>
-      <c r="T7">
-        <v>0.04021049599078016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>83.31930033333333</v>
-      </c>
-      <c r="H8">
-        <v>249.957901</v>
-      </c>
-      <c r="I8">
-        <v>0.4359757410707099</v>
-      </c>
-      <c r="J8">
-        <v>0.4359757410707098</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>1.863797</v>
-      </c>
-      <c r="N8">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P8">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q8">
-        <v>155.2902620033657</v>
-      </c>
-      <c r="R8">
-        <v>1397.612358030291</v>
-      </c>
-      <c r="S8">
-        <v>0.2378247976338306</v>
-      </c>
-      <c r="T8">
-        <v>0.2378247976338306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>83.31930033333333</v>
-      </c>
-      <c r="H9">
-        <v>249.957901</v>
-      </c>
-      <c r="I9">
-        <v>0.4359757410707099</v>
-      </c>
-      <c r="J9">
-        <v>0.4359757410707098</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.552879</v>
-      </c>
-      <c r="N9">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P9">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q9">
-        <v>129.3847917823263</v>
-      </c>
-      <c r="R9">
-        <v>1164.463126040937</v>
-      </c>
-      <c r="S9">
-        <v>0.1981509434368793</v>
-      </c>
-      <c r="T9">
-        <v>0.1981509434368793</v>
+        <v>0.2823634112785622</v>
       </c>
     </row>
   </sheetData>
